--- a/Assets/Excel/QuestDialogueBindingInfo.xlsx
+++ b/Assets/Excel/QuestDialogueBindingInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12E9902-134F-4182-80B7-46B63D7B4829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B86447-B007-40B0-B651-E62C5B080490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-204" yWindow="900" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>questId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,7 +41,19 @@
     <t>completeDialogueId</t>
   </si>
   <si>
-    <t>npcId</t>
+    <t>characterId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,69 +379,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
       <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
         <v>8</v>
       </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/QuestDialogueBindingInfo.xlsx
+++ b/Assets/Excel/QuestDialogueBindingInfo.xlsx
@@ -1,38 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B86447-B007-40B0-B651-E62C5B080490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C83E624-7F61-4736-980B-B5302A05C031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-204" yWindow="900" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{CE827352-B11A-47D6-B56E-405BE6250B73}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="QDBinding" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+  <si>
+    <t>characterId</t>
+  </si>
+  <si>
+    <t>characterName</t>
+  </si>
   <si>
     <t>questId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>notAcceptedDialogueId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>startDialogueId</t>
@@ -41,51 +40,360 @@
     <t>completeDialogueId</t>
   </si>
   <si>
-    <t>characterId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Ramon</t>
   </si>
   <si>
-    <t>characterName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ramon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Player</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -93,15 +401,290 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,7 +700,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -127,42 +710,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -192,12 +775,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -227,6 +827,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -288,13 +905,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -303,6 +913,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -367,28 +984,49 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6F18C8-7D88-4114-ABF9-B255EE03850F}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -396,42 +1034,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -439,19 +1077,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -459,23 +1097,63 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F4">
-        <v>22</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <v>66</v>
+      </c>
+      <c r="F6">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Excel/QuestDialogueBindingInfo.xlsx
+++ b/Assets/Excel/QuestDialogueBindingInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C83E624-7F61-4736-980B-B5302A05C031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0A79DA-96E9-48E1-8723-C0A74DD08ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{CE827352-B11A-47D6-B56E-405BE6250B73}"/>
   </bookViews>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1123,13 +1123,13 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1143,13 +1143,13 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
